--- a/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,12%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>75,22; 84,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>76,88; 86,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>46,46; 58,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>85,72; 93,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>78,8; 87,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>54,62; 63,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>81,75; 87,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>79,53; 85,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>52,27; 60,06</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,3%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>53,96; 62,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>50,71; 59,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>76,07; 83,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>57,79; 68,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>62,39; 70,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>52,62; 61,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>77,03; 84,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>53,13; 61,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>59,64; 65,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>52,96; 59,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>77,56; 82,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>56,94; 63,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>56,2; 67,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>59,05; 69,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>66,02; 76,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>40,7; 51,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>51,52; 62,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>68,1; 78,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>76,62; 85,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>46,32; 55,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>55,67; 63,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>65,51; 72,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>72,76; 79,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>44,85; 52,26</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>66,31; 75,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>56,79; 64,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>40,52; 51,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>27,64; 39,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>64,17; 73,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>65,85; 73,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>49,22; 60,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>29,28; 39,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>66,78; 73,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>63,03; 68,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>46,54; 54,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>29,74; 37,75</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>73,42; 84,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>46,63; 60,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>81,31; 90,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>87,47; 95,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>80,47; 90,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>64,9; 77,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>82,65; 91,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>87,95; 94,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>78,65; 86,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>57,84; 67,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>83,28; 89,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>89,36; 94,52</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,24%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>63,14; 74,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>55,43; 67,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>71,85; 82,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>33,91; 44,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>68,1; 78,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>70,18; 81,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>71,21; 81,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>34,86; 44,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>67,94; 75,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>64,75; 72,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>73,04; 80,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>35,91; 43,13</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,35%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>48,03; 56,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>55,83; 64,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>78,58; 84,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>57,09; 65,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>45,03; 53,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>65,75; 72,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>82,67; 88,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>58,78; 66,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>47,78; 53,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>62,1; 67,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>81,78; 85,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,41; 65,31</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,44%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>76,97; 82,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>86,9; 91,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>90,32; 93,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>63,76; 85,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>83,69; 88,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>85,98; 90,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>91,28; 94,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>84,79; 89,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>81,26; 85,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>87,3; 90,49</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>91,54; 94,17</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>73,66; 86,64</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,85%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,43%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>66,57; 69,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>64,64; 67,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,74; 80,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,09; 63,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,18; 72,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>71,74; 74,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,88; 83,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>61,76; 64,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,15; 70,43</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,75; 70,93</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>79,62; 81,57</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>60,77; 63,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>52,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>55,69%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,02; 78,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,46; 58,95</t>
+          <t>45,5; 59,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,58; 86,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,62; 63,45</t>
+          <t>54,44; 63,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,52; 80,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,27; 60,06</t>
+          <t>51,31; 60,05</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>63,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>60,31%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,79; 68,44</t>
+          <t>57,18; 68,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,13; 61,02</t>
+          <t>53,12; 61,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,94; 63,78</t>
+          <t>56,85; 63,8</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>47,93%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,7; 51,12</t>
+          <t>40,06; 50,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,32; 55,98</t>
+          <t>46,24; 55,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,85; 52,26</t>
+          <t>44,49; 51,99</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,58%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>30,06%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,79; 64,97</t>
+          <t>46,71; 57,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,64; 39,71</t>
+          <t>26,39; 39,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,85; 73,26</t>
+          <t>56,46; 66,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 39,19</t>
+          <t>16,97; 35,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,03; 68,65</t>
+          <t>52,82; 60,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,74; 37,75</t>
+          <t>21,65; 35,43</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>92,41%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,47; 95,44</t>
+          <t>87,63; 95,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,95; 94,83</t>
+          <t>88,34; 94,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>89,36; 94,52</t>
+          <t>89,57; 94,54</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>39,12%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,91; 44,04</t>
+          <t>33,53; 43,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,86; 44,11</t>
+          <t>34,84; 44,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,91; 43,13</t>
+          <t>35,74; 43,04</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>62,17%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>57,09; 65,95</t>
+          <t>56,51; 65,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,78; 66,21</t>
+          <t>58,75; 66,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,41; 65,31</t>
+          <t>59,15; 65,29</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79,51%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>73,19%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63,76; 85,82</t>
+          <t>29,78; 85,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,79; 89,55</t>
+          <t>84,83; 89,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,66; 86,64</t>
+          <t>45,25; 86,55</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>58,95%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>58,09; 63,65</t>
+          <t>42,4; 61,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>61,76; 64,88</t>
+          <t>56,52; 63,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>60,77; 63,82</t>
+          <t>51,83; 61,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,22; 84,01</t>
+          <t>75,41; 84,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,02; 78,53</t>
+          <t>67,6; 78,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,88; 86,6</t>
+          <t>77,1; 86,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,5; 59,39</t>
+          <t>45,11; 59,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,72; 93,04</t>
+          <t>85,45; 93,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,58; 86,34</t>
+          <t>76,5; 86,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,8; 87,84</t>
+          <t>77,95; 87,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,44; 63,8</t>
+          <t>54,75; 64,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,75; 87,96</t>
+          <t>81,6; 87,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,52; 80,61</t>
+          <t>73,38; 80,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,53; 85,88</t>
+          <t>78,99; 85,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,31; 60,05</t>
+          <t>51,21; 59,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,96; 62,92</t>
+          <t>54,23; 63,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,71; 59,93</t>
+          <t>50,69; 59,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,07; 83,16</t>
+          <t>76,09; 83,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,18; 68,32</t>
+          <t>58,23; 68,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,39; 70,22</t>
+          <t>61,84; 70,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,62; 61,76</t>
+          <t>52,46; 61,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,03; 84,1</t>
+          <t>77,08; 84,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 61,02</t>
+          <t>53,2; 61,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,64; 65,64</t>
+          <t>59,45; 65,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,96; 59,48</t>
+          <t>53,02; 59,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>77,56; 82,81</t>
+          <t>77,62; 82,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,85; 63,8</t>
+          <t>56,79; 63,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,2; 67,32</t>
+          <t>56,06; 67,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,05; 69,94</t>
+          <t>58,73; 69,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,02; 76,13</t>
+          <t>66,15; 75,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,06; 50,54</t>
+          <t>38,99; 51,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,52; 62,2</t>
+          <t>52,12; 63,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,1; 78,29</t>
+          <t>68,5; 78,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,62; 85,26</t>
+          <t>75,86; 84,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,24; 55,88</t>
+          <t>46,14; 55,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>55,67; 63,17</t>
+          <t>55,14; 63,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>65,51; 72,52</t>
+          <t>65,02; 72,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,76; 79,38</t>
+          <t>72,6; 79,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,49; 51,99</t>
+          <t>44,46; 51,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,31; 75,72</t>
+          <t>66,04; 76,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,71; 57,12</t>
+          <t>46,36; 57,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,52; 51,76</t>
+          <t>41,05; 51,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 39,01</t>
+          <t>25,58; 39,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,17; 73,91</t>
+          <t>65,22; 74,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,46; 66,16</t>
+          <t>56,02; 66,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,22; 60,14</t>
+          <t>49,12; 59,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 35,7</t>
+          <t>17,23; 36,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 73,03</t>
+          <t>67,01; 73,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,82; 60,43</t>
+          <t>52,97; 60,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,54; 54,45</t>
+          <t>46,77; 54,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,65; 35,43</t>
+          <t>21,55; 35,53</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,42; 84,88</t>
+          <t>72,6; 84,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,63; 60,06</t>
+          <t>46,23; 60,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,31; 90,41</t>
+          <t>81,46; 90,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,63; 95,43</t>
+          <t>87,64; 95,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,47; 90,55</t>
+          <t>80,66; 90,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,9; 77,06</t>
+          <t>65,78; 77,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,65; 91,37</t>
+          <t>82,49; 90,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,34; 94,87</t>
+          <t>88,91; 94,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,65; 86,12</t>
+          <t>78,52; 86,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>57,84; 67,31</t>
+          <t>57,8; 67,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83,28; 89,61</t>
+          <t>83,28; 90,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>89,57; 94,54</t>
+          <t>89,43; 94,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,14; 74,69</t>
+          <t>63,84; 75,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,43; 67,18</t>
+          <t>55,15; 67,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71,85; 82,11</t>
+          <t>71,77; 82,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,53; 43,88</t>
+          <t>33,33; 43,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,1; 78,62</t>
+          <t>68,22; 78,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,18; 81,06</t>
+          <t>71,01; 81,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>71,21; 81,6</t>
+          <t>71,55; 81,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 44,15</t>
+          <t>35,24; 44,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,94; 75,48</t>
+          <t>67,58; 75,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,75; 72,88</t>
+          <t>65,14; 72,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,04; 80,43</t>
+          <t>73,01; 80,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,74; 43,04</t>
+          <t>35,77; 42,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>48,03; 56,07</t>
+          <t>48,03; 56,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,83; 64,3</t>
+          <t>55,76; 64,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,58; 84,98</t>
+          <t>79,04; 84,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,51; 65,73</t>
+          <t>56,46; 65,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,03; 53,03</t>
+          <t>45,04; 52,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,75; 72,69</t>
+          <t>65,62; 72,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>82,67; 88,05</t>
+          <t>82,61; 88,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,75; 66,19</t>
+          <t>59,3; 66,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,78; 53,65</t>
+          <t>47,84; 53,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,1; 67,52</t>
+          <t>61,78; 67,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>81,78; 85,84</t>
+          <t>81,65; 86,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,15; 65,29</t>
+          <t>59,11; 65,06</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>76,97; 82,78</t>
+          <t>77,07; 82,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,9; 91,33</t>
+          <t>86,93; 91,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,32; 93,93</t>
+          <t>90,06; 93,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,78; 85,7</t>
+          <t>27,57; 85,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>83,69; 88,34</t>
+          <t>83,84; 88,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>85,98; 90,64</t>
+          <t>85,97; 90,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>91,28; 94,88</t>
+          <t>91,62; 95,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,83; 89,5</t>
+          <t>84,94; 89,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>81,26; 85,01</t>
+          <t>81,31; 85,03</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>87,3; 90,49</t>
+          <t>87,29; 90,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>91,54; 94,17</t>
+          <t>91,38; 94,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>45,25; 86,55</t>
+          <t>45,48; 86,5</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>66,57; 69,65</t>
+          <t>66,31; 69,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>64,64; 67,99</t>
+          <t>64,6; 68,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>77,74; 80,49</t>
+          <t>77,55; 80,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>42,4; 61,78</t>
+          <t>42,97; 61,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,18; 72,21</t>
+          <t>69,09; 72,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>71,74; 74,77</t>
+          <t>71,68; 74,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,88; 83,49</t>
+          <t>80,87; 83,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>56,52; 63,26</t>
+          <t>56,56; 63,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>68,15; 70,43</t>
+          <t>68,26; 70,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>68,75; 70,93</t>
+          <t>68,72; 70,99</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>79,62; 81,57</t>
+          <t>79,66; 81,6</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,83; 61,76</t>
+          <t>50,74; 61,7</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>219114</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>212172</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>235116</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>163338</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>234364</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>231239</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>237962</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>169638</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>453478</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>443411</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>473079</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>332977</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>205872; 231629</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>196189; 227996</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>221130; 248363</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>140156; 184967</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>222885; 243187</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>216698; 244119</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>222777; 249686</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>157247; 184606</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>435617; 468472</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>420817; 463389</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>452331; 490572</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>306190; 357712</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>288618</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>277848</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>398608</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>325402</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>333948</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>298852</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>418162</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>293936</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>622565</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>576700</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>816771</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>619338</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>266787; 311445</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>255238; 300018</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>379327; 414797</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>299285; 354398</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>311631; 353561</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>274123; 323075</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>399756; 435842</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>272976; 314875</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>592135; 654849</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>544103; 610220</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>789484; 840181</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>583251; 654376</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>197672</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>208920</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>226232</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>138011</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>191065</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>250174</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>269922</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>166443</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>388737</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>459094</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>496154</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>304454</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>178743; 213932</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>189704; 225354</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>210172; 240927</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>119618; 156605</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>174814; 211575</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>232909; 265896</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>253182; 283081</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>151562; 182159</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>360776; 413709</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>431092; 480817</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>472967; 515804</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>282443; 329357</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>255075</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>192047</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>169231</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>99386</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>258237</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>237468</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>210299</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>133284</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>513312</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>429515</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>379531</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>232670</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>236877; 273144</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>171868; 212153</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>151039; 189323</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>78882; 121167</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>242248; 275009</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>216779; 257633</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>189209; 228525</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80228; 170482</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>489272; 537486</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>401366; 455708</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>352279; 410434</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>166823; 275033</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>161215</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112866</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>182267</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>164606</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>178963</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>156875</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>190932</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>192391</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>340177</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>269742</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>373199</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>356997</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>147596; 172457</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97829; 127734</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>172069; 191944</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>156046; 169538</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>167514; 187450</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>143852; 170172</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>180312; 198729</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>185170; 197359</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>322693; 354729</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>248703; 289145</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>357941; 387044</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>345492; 364766</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>187915</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>203719</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>104155</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>204735</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>212360</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>208532</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>101569</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>392651</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>377872</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>412251</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>205724</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>172889; 203312</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>148803; 180859</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>188849; 216805</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>89725; 117512</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>189759; 218754</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>198061; 226765</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>194019; 222022</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>90460; 113192</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>370998; 414382</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>357483; 400551</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>390104; 429146</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>188072; 225378</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>322302</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>392907</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>536068</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>377145</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>312512</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>475687</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>585211</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>398226</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>634814</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>868593</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1121279</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>775371</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>295405; 345054</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>365151; 420416</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>516165; 554328</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>347429; 405750</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>287014; 336087</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>450138; 499661</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>565361; 602445</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>374730; 420382</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>599122; 670030</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>828409; 901731</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1092031; 1151083</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>737221; 811490</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>593957</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>693105</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>718426</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>576572</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>674887</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>727721</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>770185</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>625741</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1268844</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1420826</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1488611</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1202314</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>572051; 614624</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>673848; 709543</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>701195; 731064</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>255337; 790986</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>655922; 692307</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>706440; 746118</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>755022; 784003</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>608732; 640088</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1239585; 1296377</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1393984; 1446204</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1464476; 1506955</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>747166; 1420939</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2541</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2178</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2309</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2395</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5676</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2225867</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2255376</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2669669</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1948615</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2388711</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2590376</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2891205</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2081228</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4614577</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4845753</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>5560875</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4029843</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2170969; 2275537</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2195742; 2312300</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2618813; 2715505</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1473323; 2122379</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2333250; 2435811</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2536064; 2640140</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2847958; 2934358</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1927645; 2155887</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4539778; 4688116</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4767294; 4924822</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5495187; 5628988</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3468951; 4218069</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>